--- a/shipData/ships.xlsx
+++ b/shipData/ships.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jilek\Documents\AL_Fleet_Builder_Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jilek\Documents\Azur-Lane-Fllet-Builder-Dev\shipData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35796383-9EB1-46E8-8890-876BB1B61B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427BA4D2-51C9-427C-A5F4-DFEA25701B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="432" windowWidth="25860" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6238" uniqueCount="873">
   <si>
     <t>ID</t>
   </si>
@@ -2617,6 +2617,39 @@
   </si>
   <si>
     <t>tank</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>flag,boss</t>
+  </si>
+  <si>
+    <t>flag,mob</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>tank,mob</t>
+  </si>
+  <si>
+    <t>mob,tank</t>
+  </si>
+  <si>
+    <t>mob,healer</t>
+  </si>
+  <si>
+    <t>boss,aa</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>tank,aa</t>
+  </si>
+  <si>
+    <t>healer,aa</t>
   </si>
 </sst>
 </file>
@@ -2997,8 +3030,8 @@
   <dimension ref="A1:X618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W447" sqref="W447"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W601" sqref="W601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4978,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>93</v>
       </c>
@@ -5040,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>94</v>
       </c>
@@ -5099,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>96</v>
       </c>
@@ -5161,7 +5194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10061</v>
       </c>
@@ -5220,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>100</v>
       </c>
@@ -5279,7 +5312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>101</v>
       </c>
@@ -5338,7 +5371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>102</v>
       </c>
@@ -5397,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>103</v>
       </c>
@@ -5456,7 +5489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>151</v>
       </c>
@@ -5518,7 +5551,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>152</v>
       </c>
@@ -5577,7 +5610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>155</v>
       </c>
@@ -5635,8 +5668,11 @@
       <c r="U43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>159</v>
       </c>
@@ -5698,7 +5734,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>160</v>
       </c>
@@ -5760,7 +5796,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>161</v>
       </c>
@@ -5822,7 +5858,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>162</v>
       </c>
@@ -5884,7 +5920,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>163</v>
       </c>
@@ -5943,7 +5979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>164</v>
       </c>
@@ -6002,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>165</v>
       </c>
@@ -6061,7 +6097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>166</v>
       </c>
@@ -6119,8 +6155,11 @@
       <c r="U51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W51" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>167</v>
       </c>
@@ -6179,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>168</v>
       </c>
@@ -6238,7 +6277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>170</v>
       </c>
@@ -6297,7 +6336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>171</v>
       </c>
@@ -6359,7 +6398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>173</v>
       </c>
@@ -6418,7 +6457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>174</v>
       </c>
@@ -6477,7 +6516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>175</v>
       </c>
@@ -6539,7 +6578,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>176</v>
       </c>
@@ -6601,7 +6640,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>177</v>
       </c>
@@ -6660,7 +6699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>178</v>
       </c>
@@ -6719,7 +6758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>233</v>
       </c>
@@ -6781,7 +6820,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>236</v>
       </c>
@@ -6840,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>237</v>
       </c>
@@ -12619,7 +12658,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>518</v>
       </c>
@@ -12677,8 +12716,11 @@
       <c r="U161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W161" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>522</v>
       </c>
@@ -12737,7 +12779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>523</v>
       </c>
@@ -12799,7 +12841,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -12858,7 +12900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>188</v>
       </c>
@@ -12917,7 +12959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>190</v>
       </c>
@@ -12976,7 +13018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -13035,7 +13077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -13094,7 +13136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>196</v>
       </c>
@@ -13153,7 +13195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>199</v>
       </c>
@@ -13212,7 +13254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>202</v>
       </c>
@@ -13274,7 +13316,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -13333,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3005</v>
       </c>
@@ -13392,7 +13434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3006</v>
       </c>
@@ -13451,7 +13493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3019</v>
       </c>
@@ -13510,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3026</v>
       </c>
@@ -15622,6 +15664,9 @@
       <c r="U212">
         <v>3</v>
       </c>
+      <c r="W212" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213">
@@ -15681,6 +15726,9 @@
       <c r="U213">
         <v>0</v>
       </c>
+      <c r="W213" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214">
@@ -15740,6 +15788,9 @@
       <c r="U214">
         <v>6</v>
       </c>
+      <c r="W214" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215">
@@ -15858,6 +15909,9 @@
       <c r="U216">
         <v>0</v>
       </c>
+      <c r="W216" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217">
@@ -16874,6 +16928,9 @@
       <c r="U233">
         <v>3</v>
       </c>
+      <c r="W233" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234">
@@ -17051,6 +17108,9 @@
       <c r="U236">
         <v>2</v>
       </c>
+      <c r="W236" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237">
@@ -17715,6 +17775,9 @@
       <c r="V247" t="s">
         <v>298</v>
       </c>
+      <c r="W247" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248">
@@ -17777,6 +17840,9 @@
       <c r="V248" t="s">
         <v>297</v>
       </c>
+      <c r="W248" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249">
@@ -18268,7 +18334,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>321</v>
       </c>
@@ -18330,7 +18396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>322</v>
       </c>
@@ -18391,8 +18457,11 @@
       <c r="V258" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W258" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>327</v>
       </c>
@@ -18451,7 +18520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>328</v>
       </c>
@@ -18510,7 +18579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>329</v>
       </c>
@@ -18572,7 +18641,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>330</v>
       </c>
@@ -18631,7 +18700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>335</v>
       </c>
@@ -18690,7 +18759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>349</v>
       </c>
@@ -18752,7 +18821,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>360</v>
       </c>
@@ -18811,7 +18880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>361</v>
       </c>
@@ -18869,8 +18938,11 @@
       <c r="U266">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W266" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>366</v>
       </c>
@@ -18929,7 +19001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>371</v>
       </c>
@@ -18991,7 +19063,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>372</v>
       </c>
@@ -19049,8 +19121,11 @@
       <c r="U269">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W269" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>373</v>
       </c>
@@ -19111,8 +19186,11 @@
       <c r="V270" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W270" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>390</v>
       </c>
@@ -19174,7 +19252,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>391</v>
       </c>
@@ -19353,6 +19431,9 @@
       <c r="U274">
         <v>1</v>
       </c>
+      <c r="W274" t="s">
+        <v>862</v>
+      </c>
       <c r="X274" t="s">
         <v>823</v>
       </c>
@@ -20017,6 +20098,9 @@
       <c r="V285" t="s">
         <v>710</v>
       </c>
+      <c r="W285" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286">
@@ -20198,7 +20282,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>463</v>
       </c>
@@ -20260,7 +20344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>476</v>
       </c>
@@ -20318,8 +20402,11 @@
       <c r="U290">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W290" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>486</v>
       </c>
@@ -20380,8 +20467,11 @@
       <c r="V291" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W291" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>493</v>
       </c>
@@ -20443,7 +20533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>494</v>
       </c>
@@ -20505,7 +20595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>495</v>
       </c>
@@ -20564,7 +20654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>498</v>
       </c>
@@ -20623,7 +20713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>501</v>
       </c>
@@ -20682,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>514</v>
       </c>
@@ -20741,7 +20831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>349</v>
       </c>
@@ -20803,7 +20893,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>351</v>
       </c>
@@ -20862,7 +20952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>353</v>
       </c>
@@ -20921,7 +21011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>355</v>
       </c>
@@ -20979,8 +21069,11 @@
       <c r="U301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W301" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>357</v>
       </c>
@@ -21039,7 +21132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -21098,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3033</v>
       </c>
@@ -22050,7 +22143,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>3361</v>
       </c>
@@ -22106,7 +22199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3372</v>
       </c>
@@ -22162,7 +22255,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>3373</v>
       </c>
@@ -22218,7 +22311,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3434</v>
       </c>
@@ -22273,8 +22366,11 @@
       <c r="T324">
         <v>150</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W324" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>39</v>
       </c>
@@ -22333,7 +22429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>40</v>
       </c>
@@ -22392,7 +22488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>41</v>
       </c>
@@ -22454,7 +22550,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>42</v>
       </c>
@@ -22513,7 +22609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>43</v>
       </c>
@@ -22572,7 +22668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>44</v>
       </c>
@@ -22633,8 +22729,11 @@
       <c r="V330" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W330" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>45</v>
       </c>
@@ -22693,7 +22792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>46</v>
       </c>
@@ -22755,7 +22854,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>47</v>
       </c>
@@ -22814,7 +22913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>48</v>
       </c>
@@ -22873,7 +22972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>49</v>
       </c>
@@ -22935,7 +23034,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>50</v>
       </c>
@@ -22994,7 +23093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>10063</v>
       </c>
@@ -23052,8 +23151,11 @@
       <c r="U337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W337" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>10074</v>
       </c>
@@ -23111,8 +23213,11 @@
       <c r="U338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W338" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>119</v>
       </c>
@@ -23171,7 +23276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>120</v>
       </c>
@@ -23230,7 +23335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>121</v>
       </c>
@@ -23289,7 +23394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>122</v>
       </c>
@@ -23348,7 +23453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>123</v>
       </c>
@@ -23406,8 +23511,11 @@
       <c r="U343">
         <v>6</v>
       </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W343" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>124</v>
       </c>
@@ -23466,7 +23574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>125</v>
       </c>
@@ -23525,7 +23633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>126</v>
       </c>
@@ -23584,7 +23692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>190</v>
       </c>
@@ -23643,7 +23751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>191</v>
       </c>
@@ -23702,7 +23810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>192</v>
       </c>
@@ -23761,7 +23869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>193</v>
       </c>
@@ -23820,7 +23928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>195</v>
       </c>
@@ -23878,8 +23986,11 @@
       <c r="U351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W351" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>196</v>
       </c>
@@ -23937,8 +24048,11 @@
       <c r="U352">
         <v>5</v>
       </c>
-    </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W352" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>197</v>
       </c>
@@ -23996,8 +24110,11 @@
       <c r="U353">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W353" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>198</v>
       </c>
@@ -24056,7 +24173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>200</v>
       </c>
@@ -24114,8 +24231,11 @@
       <c r="U355">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W355" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>201</v>
       </c>
@@ -24173,8 +24293,11 @@
       <c r="U356">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W356" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>202</v>
       </c>
@@ -24232,8 +24355,11 @@
       <c r="U357">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W357" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>203</v>
       </c>
@@ -24294,8 +24420,11 @@
       <c r="V358" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W358" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>242</v>
       </c>
@@ -24353,8 +24482,11 @@
       <c r="U359">
         <v>5</v>
       </c>
-    </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W359" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>244</v>
       </c>
@@ -24412,8 +24544,11 @@
       <c r="U360">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W360" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>245</v>
       </c>
@@ -24472,7 +24607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>246</v>
       </c>
@@ -24531,7 +24666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>337</v>
       </c>
@@ -24590,7 +24725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>364</v>
       </c>
@@ -24648,8 +24783,11 @@
       <c r="U364">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W364" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>382</v>
       </c>
@@ -24708,7 +24846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>413</v>
       </c>
@@ -24767,7 +24905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>414</v>
       </c>
@@ -24826,7 +24964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>422</v>
       </c>
@@ -24884,8 +25022,11 @@
       <c r="U368">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W368" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>443</v>
       </c>
@@ -24944,7 +25085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>455</v>
       </c>
@@ -25003,7 +25144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>469</v>
       </c>
@@ -25065,7 +25206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>478</v>
       </c>
@@ -25124,7 +25265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>479</v>
       </c>
@@ -25182,8 +25323,11 @@
       <c r="U373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W373" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>483</v>
       </c>
@@ -25244,8 +25388,11 @@
       <c r="V374" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W374" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>489</v>
       </c>
@@ -25307,7 +25454,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>496</v>
       </c>
@@ -25365,8 +25512,11 @@
       <c r="U376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W376" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>512</v>
       </c>
@@ -25425,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>521</v>
       </c>
@@ -25483,8 +25633,11 @@
       <c r="U378">
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W378" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>524</v>
       </c>
@@ -25543,7 +25696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>436</v>
       </c>
@@ -25602,7 +25755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>438</v>
       </c>
@@ -25661,7 +25814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>440</v>
       </c>
@@ -25720,7 +25873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>442</v>
       </c>
@@ -25778,8 +25931,11 @@
       <c r="U383">
         <v>3</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W383" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>444</v>
       </c>
@@ -25955,6 +26111,9 @@
       <c r="U386">
         <v>1</v>
       </c>
+      <c r="W386" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
@@ -26073,6 +26232,9 @@
       <c r="U388">
         <v>0</v>
       </c>
+      <c r="W388" t="s">
+        <v>861</v>
+      </c>
       <c r="X388" t="s">
         <v>812</v>
       </c>
@@ -26135,6 +26297,9 @@
       <c r="U389">
         <v>0</v>
       </c>
+      <c r="W389" t="s">
+        <v>871</v>
+      </c>
       <c r="X389" t="s">
         <v>811</v>
       </c>
@@ -26197,6 +26362,9 @@
       <c r="U390">
         <v>0</v>
       </c>
+      <c r="W390" t="s">
+        <v>861</v>
+      </c>
       <c r="X390" t="s">
         <v>812</v>
       </c>
@@ -26259,6 +26427,9 @@
       <c r="U391">
         <v>0</v>
       </c>
+      <c r="W391" t="s">
+        <v>861</v>
+      </c>
       <c r="X391" t="s">
         <v>813</v>
       </c>
@@ -26321,6 +26492,9 @@
       <c r="U392">
         <v>0</v>
       </c>
+      <c r="W392" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A393">
@@ -27041,6 +27215,9 @@
       <c r="U404">
         <v>5</v>
       </c>
+      <c r="W404" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A405">
@@ -27464,7 +27641,7 @@
         <v>3</v>
       </c>
       <c r="W411" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.3">
@@ -27525,6 +27702,9 @@
       <c r="U412">
         <v>5</v>
       </c>
+      <c r="W412" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A413">
@@ -27644,7 +27824,7 @@
         <v>1</v>
       </c>
       <c r="W414" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.3">
@@ -27709,7 +27889,7 @@
         <v>267</v>
       </c>
       <c r="W415" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.3">
@@ -28074,6 +28254,9 @@
       <c r="U421">
         <v>0</v>
       </c>
+      <c r="W421" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="422" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A422">
@@ -28384,6 +28567,9 @@
       <c r="U426">
         <v>2</v>
       </c>
+      <c r="W426" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="427" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A427">
@@ -28570,6 +28756,9 @@
       <c r="V429" t="s">
         <v>733</v>
       </c>
+      <c r="W429" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="430" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A430">
@@ -29173,7 +29362,7 @@
         <v>58</v>
       </c>
       <c r="W439" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="440" spans="1:24" x14ac:dyDescent="0.3">
@@ -30103,7 +30292,7 @@
         <v>2</v>
       </c>
       <c r="W454" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="455" spans="1:24" x14ac:dyDescent="0.3">
@@ -30410,7 +30599,7 @@
         <v>58</v>
       </c>
       <c r="W459" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="460" spans="1:24" x14ac:dyDescent="0.3">
@@ -30474,6 +30663,9 @@
       <c r="V460" t="s">
         <v>828</v>
       </c>
+      <c r="W460" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="461" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A461">
@@ -30793,6 +30985,9 @@
       <c r="V465" t="s">
         <v>738</v>
       </c>
+      <c r="W465" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="466" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A466">
@@ -30852,6 +31047,9 @@
       <c r="U466">
         <v>3</v>
       </c>
+      <c r="W466" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A467">
@@ -31095,7 +31293,7 @@
         <v>1</v>
       </c>
       <c r="W470" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.3">
@@ -31218,6 +31416,9 @@
       <c r="U472">
         <v>0</v>
       </c>
+      <c r="W472" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
@@ -31340,7 +31541,7 @@
         <v>0</v>
       </c>
       <c r="W474" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.3">
@@ -31691,7 +31892,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="481" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>3208</v>
       </c>
@@ -31747,7 +31948,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="482" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>3209</v>
       </c>
@@ -31803,7 +32004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="483" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>3210</v>
       </c>
@@ -31859,7 +32060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="484" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>3211</v>
       </c>
@@ -31915,7 +32116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="485" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>70</v>
       </c>
@@ -31977,7 +32178,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="486" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>71</v>
       </c>
@@ -32036,7 +32237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>72</v>
       </c>
@@ -32097,8 +32298,11 @@
       <c r="V487" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="488" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W487" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>73</v>
       </c>
@@ -32157,7 +32361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>74</v>
       </c>
@@ -32216,7 +32420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>75</v>
       </c>
@@ -32275,7 +32479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>76</v>
       </c>
@@ -32334,7 +32538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>77</v>
       </c>
@@ -32392,8 +32596,11 @@
       <c r="U492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W492" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>78</v>
       </c>
@@ -32452,7 +32659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>79</v>
       </c>
@@ -32514,7 +32721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="495" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>10066</v>
       </c>
@@ -32573,7 +32780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>10072</v>
       </c>
@@ -32630,6 +32837,9 @@
       </c>
       <c r="U496">
         <v>2</v>
+      </c>
+      <c r="W496" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.3">
@@ -32749,6 +32959,9 @@
       <c r="U498">
         <v>1</v>
       </c>
+      <c r="W498" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A499">
@@ -32809,7 +33022,7 @@
         <v>4</v>
       </c>
       <c r="W499" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.3">
@@ -32870,6 +33083,9 @@
       <c r="U500">
         <v>1</v>
       </c>
+      <c r="W500" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A501">
@@ -32929,6 +33145,9 @@
       <c r="U501">
         <v>1</v>
       </c>
+      <c r="W501" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A502">
@@ -33345,6 +33564,9 @@
       <c r="U508">
         <v>1</v>
       </c>
+      <c r="W508" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A509">
@@ -33717,6 +33939,9 @@
       <c r="V514" t="s">
         <v>602</v>
       </c>
+      <c r="W514" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="515" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A515">
@@ -33779,6 +34004,9 @@
       <c r="V515" t="s">
         <v>740</v>
       </c>
+      <c r="W515" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="516" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A516">
@@ -34021,6 +34249,9 @@
       <c r="U519">
         <v>2</v>
       </c>
+      <c r="W519" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="520" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A520">
@@ -34381,6 +34612,9 @@
       <c r="V525" t="s">
         <v>742</v>
       </c>
+      <c r="W525" t="s">
+        <v>865</v>
+      </c>
       <c r="X525" t="s">
         <v>801</v>
       </c>
@@ -34756,6 +34990,9 @@
       <c r="V531" t="s">
         <v>833</v>
       </c>
+      <c r="W531" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="532" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A532">
@@ -34815,6 +35052,9 @@
       <c r="U532">
         <v>1</v>
       </c>
+      <c r="W532" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="533" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A533">
@@ -34936,6 +35176,9 @@
       <c r="V534" t="s">
         <v>710</v>
       </c>
+      <c r="W534" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="535" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A535">
@@ -34996,7 +35239,7 @@
         <v>3</v>
       </c>
       <c r="W535" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="536" spans="1:24" x14ac:dyDescent="0.3">
@@ -35057,6 +35300,9 @@
       <c r="U536">
         <v>5</v>
       </c>
+      <c r="W536" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="537" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A537">
@@ -35116,6 +35362,9 @@
       <c r="U537">
         <v>0</v>
       </c>
+      <c r="W537" t="s">
+        <v>868</v>
+      </c>
       <c r="X537" t="s">
         <v>803</v>
       </c>
@@ -35429,6 +35678,9 @@
       <c r="V542" t="s">
         <v>833</v>
       </c>
+      <c r="W542" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="543" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A543">
@@ -35612,6 +35864,9 @@
       <c r="U545">
         <v>0</v>
       </c>
+      <c r="W545" t="s">
+        <v>865</v>
+      </c>
       <c r="X545" t="s">
         <v>804</v>
       </c>
@@ -36462,6 +36717,9 @@
       <c r="U559">
         <v>0</v>
       </c>
+      <c r="W559" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="560" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A560">
@@ -38874,6 +39132,9 @@
       <c r="U601">
         <v>0</v>
       </c>
+      <c r="W601" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="602" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A602">
@@ -38995,6 +39256,9 @@
       <c r="U603">
         <v>0</v>
       </c>
+      <c r="W603" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="604" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A604">
@@ -39057,6 +39321,9 @@
       <c r="V604" t="s">
         <v>58</v>
       </c>
+      <c r="W604" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="605" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A605">
@@ -39255,6 +39522,9 @@
       <c r="U607">
         <v>0</v>
       </c>
+      <c r="W607" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="608" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A608">
@@ -39782,7 +40052,7 @@
         <v>0</v>
       </c>
       <c r="W615" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.3">

--- a/shipData/ships.xlsx
+++ b/shipData/ships.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jilek\Documents\Azur-Lane-Fllet-Builder-Dev\shipData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1117AEB-D11C-4D09-9ABE-DD49412E9F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52184C6-C885-426B-BF18-03A898C604E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="432" windowWidth="25860" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2727,8 +2727,8 @@
   <dimension ref="A1:X535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V191" sqref="V191"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W114" sqref="W114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9647,7 +9647,7 @@
         <v>18</v>
       </c>
       <c r="W114" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.3">
